--- a/host/net_tel_ip.xlsx
+++ b/host/net_tel_ip.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Koach\Desktop\Office_guidace_System\host\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D22A4C-A33E-40DB-8035-9A6ABF20ADEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED93A85F-C6F9-4B09-B3A6-13FB88DA6150}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,11 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>localhost 6666</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="4">
   <si>
     <t>分機號碼</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,7 +35,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.115.253 6666</t>
+    <t>10.1.1.11 6666</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>localhost 6666</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,137 +404,255 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>12811</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>12812</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>12812</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12812</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>12813</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>12813</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>12813</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>12814</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>12814</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12814</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>12816</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12816</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12816</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12817</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12817</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>12817</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12818</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>12818</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>12815</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>22222</v>
       </c>
       <c r="B22" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
